--- a/natmiOut/OldD7/LR-pairs_lrc2p/Timp2-Itga3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Timp2-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.47772940267813</v>
+        <v>6.998221666666667</v>
       </c>
       <c r="H2">
-        <v>6.47772940267813</v>
+        <v>20.994665</v>
       </c>
       <c r="I2">
-        <v>0.01751149954385872</v>
+        <v>0.01819620957294902</v>
       </c>
       <c r="J2">
-        <v>0.01751149954385872</v>
+        <v>0.01819620957294902</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.442864983218</v>
+        <v>12.77892533333333</v>
       </c>
       <c r="N2">
-        <v>10.442864983218</v>
+        <v>38.336776</v>
       </c>
       <c r="O2">
-        <v>0.712904277040024</v>
+        <v>0.7206984557633653</v>
       </c>
       <c r="P2">
-        <v>0.712904277040024</v>
+        <v>0.7206984557633654</v>
       </c>
       <c r="Q2">
-        <v>67.64605354998909</v>
+        <v>89.4297521444489</v>
       </c>
       <c r="R2">
-        <v>67.64605354998909</v>
+        <v>804.8677693000401</v>
       </c>
       <c r="S2">
-        <v>0.01248402292220131</v>
+        <v>0.01311398013997092</v>
       </c>
       <c r="T2">
-        <v>0.01248402292220131</v>
+        <v>0.01311398013997092</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.47772940267813</v>
+        <v>6.998221666666667</v>
       </c>
       <c r="H3">
-        <v>6.47772940267813</v>
+        <v>20.994665</v>
       </c>
       <c r="I3">
-        <v>0.01751149954385872</v>
+        <v>0.01819620957294902</v>
       </c>
       <c r="J3">
-        <v>0.01751149954385872</v>
+        <v>0.01819620957294902</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.916808976576171</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N3">
-        <v>0.916808976576171</v>
+        <v>2.969483</v>
       </c>
       <c r="O3">
-        <v>0.06258790491691597</v>
+        <v>0.05582372947885773</v>
       </c>
       <c r="P3">
-        <v>0.06258790491691597</v>
+        <v>0.05582372947885774</v>
       </c>
       <c r="Q3">
-        <v>5.938840464206708</v>
+        <v>6.927033423132778</v>
       </c>
       <c r="R3">
-        <v>5.938840464206708</v>
+        <v>62.34330080819501</v>
       </c>
       <c r="S3">
-        <v>0.001096008068403647</v>
+        <v>0.001015780280740907</v>
       </c>
       <c r="T3">
-        <v>0.001096008068403647</v>
+        <v>0.001015780280740907</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.47772940267813</v>
+        <v>6.998221666666667</v>
       </c>
       <c r="H4">
-        <v>6.47772940267813</v>
+        <v>20.994665</v>
       </c>
       <c r="I4">
-        <v>0.01751149954385872</v>
+        <v>0.01819620957294902</v>
       </c>
       <c r="J4">
-        <v>0.01751149954385872</v>
+        <v>0.01819620957294902</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.28866708618291</v>
+        <v>0.02976266666666667</v>
       </c>
       <c r="N4">
-        <v>3.28866708618291</v>
+        <v>0.08928800000000001</v>
       </c>
       <c r="O4">
-        <v>0.22450781804306</v>
+        <v>0.001678537697541373</v>
       </c>
       <c r="P4">
-        <v>0.22450781804306</v>
+        <v>0.001678537697541373</v>
       </c>
       <c r="Q4">
-        <v>21.30309547978685</v>
+        <v>0.2082857387244445</v>
       </c>
       <c r="R4">
-        <v>21.30309547978685</v>
+        <v>1.87457164852</v>
       </c>
       <c r="S4">
-        <v>0.003931468553253763</v>
+        <v>3.054302372055814E-05</v>
       </c>
       <c r="T4">
-        <v>0.003931468553253763</v>
+        <v>3.054302372055814E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>253.504156532595</v>
+        <v>6.998221666666667</v>
       </c>
       <c r="H5">
-        <v>253.504156532595</v>
+        <v>20.994665</v>
       </c>
       <c r="I5">
-        <v>0.6853077128617761</v>
+        <v>0.01819620957294902</v>
       </c>
       <c r="J5">
-        <v>0.6853077128617761</v>
+        <v>0.01819620957294902</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.442864983218</v>
+        <v>3.932791</v>
       </c>
       <c r="N5">
-        <v>10.442864983218</v>
+        <v>11.798373</v>
       </c>
       <c r="O5">
-        <v>0.712904277040024</v>
+        <v>0.2217992770602354</v>
       </c>
       <c r="P5">
-        <v>0.712904277040024</v>
+        <v>0.2217992770602354</v>
       </c>
       <c r="Q5">
-        <v>2647.309679354451</v>
+        <v>27.52254318667167</v>
       </c>
       <c r="R5">
-        <v>2647.309679354451</v>
+        <v>247.702888680045</v>
       </c>
       <c r="S5">
-        <v>0.4885587995876768</v>
+        <v>0.004035906128516628</v>
       </c>
       <c r="T5">
-        <v>0.4885587995876768</v>
+        <v>0.004035906128516628</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>253.504156532595</v>
+        <v>255.6993613333333</v>
       </c>
       <c r="H6">
-        <v>253.504156532595</v>
+        <v>767.098084</v>
       </c>
       <c r="I6">
-        <v>0.6853077128617761</v>
+        <v>0.6648487841778685</v>
       </c>
       <c r="J6">
-        <v>0.6853077128617761</v>
+        <v>0.6648487841778684</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.916808976576171</v>
+        <v>12.77892533333333</v>
       </c>
       <c r="N6">
-        <v>0.916808976576171</v>
+        <v>38.336776</v>
       </c>
       <c r="O6">
-        <v>0.06258790491691597</v>
+        <v>0.7206984557633653</v>
       </c>
       <c r="P6">
-        <v>0.06258790491691597</v>
+        <v>0.7206984557633654</v>
       </c>
       <c r="Q6">
-        <v>232.4148863084539</v>
+        <v>3267.563046259687</v>
       </c>
       <c r="R6">
-        <v>232.4148863084539</v>
+        <v>29408.06741633718</v>
       </c>
       <c r="S6">
-        <v>0.04289197397142199</v>
+        <v>0.4791554920731408</v>
       </c>
       <c r="T6">
-        <v>0.04289197397142199</v>
+        <v>0.4791554920731408</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>253.504156532595</v>
+        <v>255.6993613333333</v>
       </c>
       <c r="H7">
-        <v>253.504156532595</v>
+        <v>767.098084</v>
       </c>
       <c r="I7">
-        <v>0.6853077128617761</v>
+        <v>0.6648487841778685</v>
       </c>
       <c r="J7">
-        <v>0.6853077128617761</v>
+        <v>0.6648487841778684</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.28866708618291</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N7">
-        <v>3.28866708618291</v>
+        <v>2.969483</v>
       </c>
       <c r="O7">
-        <v>0.22450781804306</v>
+        <v>0.05582372947885773</v>
       </c>
       <c r="P7">
-        <v>0.22450781804306</v>
+        <v>0.05582372947885774</v>
       </c>
       <c r="Q7">
-        <v>833.6907757993055</v>
+        <v>253.0983021967302</v>
       </c>
       <c r="R7">
-        <v>833.6907757993055</v>
+        <v>2277.884719770572</v>
       </c>
       <c r="S7">
-        <v>0.1538569393026772</v>
+        <v>0.0371143386722928</v>
       </c>
       <c r="T7">
-        <v>0.1538569393026772</v>
+        <v>0.0371143386722928</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.46818085567919</v>
+        <v>255.6993613333333</v>
       </c>
       <c r="H8">
-        <v>75.46818085567919</v>
+        <v>767.098084</v>
       </c>
       <c r="I8">
-        <v>0.2040160884280983</v>
+        <v>0.6648487841778685</v>
       </c>
       <c r="J8">
-        <v>0.2040160884280983</v>
+        <v>0.6648487841778684</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>10.442864983218</v>
+        <v>0.02976266666666667</v>
       </c>
       <c r="N8">
-        <v>10.442864983218</v>
+        <v>0.08928800000000001</v>
       </c>
       <c r="O8">
-        <v>0.712904277040024</v>
+        <v>0.001678537697541373</v>
       </c>
       <c r="P8">
-        <v>0.712904277040024</v>
+        <v>0.001678537697541373</v>
       </c>
       <c r="Q8">
-        <v>788.1040232049353</v>
+        <v>7.610294858243556</v>
       </c>
       <c r="R8">
-        <v>788.1040232049353</v>
+        <v>68.492653724192</v>
       </c>
       <c r="S8">
-        <v>0.145443942025367</v>
+        <v>0.001115973747407101</v>
       </c>
       <c r="T8">
-        <v>0.145443942025367</v>
+        <v>0.001115973747407101</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.46818085567919</v>
+        <v>255.6993613333333</v>
       </c>
       <c r="H9">
-        <v>75.46818085567919</v>
+        <v>767.098084</v>
       </c>
       <c r="I9">
-        <v>0.2040160884280983</v>
+        <v>0.6648487841778685</v>
       </c>
       <c r="J9">
-        <v>0.2040160884280983</v>
+        <v>0.6648487841778684</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.916808976576171</v>
+        <v>3.932791</v>
       </c>
       <c r="N9">
-        <v>0.916808976576171</v>
+        <v>11.798373</v>
       </c>
       <c r="O9">
-        <v>0.06258790491691597</v>
+        <v>0.2217992770602354</v>
       </c>
       <c r="P9">
-        <v>0.06258790491691597</v>
+        <v>0.2217992770602354</v>
       </c>
       <c r="Q9">
-        <v>69.18990565436063</v>
+        <v>1005.612146957481</v>
       </c>
       <c r="R9">
-        <v>69.18990565436063</v>
+        <v>9050.509322617332</v>
       </c>
       <c r="S9">
-        <v>0.01276893954405894</v>
+        <v>0.1474629796850277</v>
       </c>
       <c r="T9">
-        <v>0.01276893954405894</v>
+        <v>0.1474629796850277</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.46818085567919</v>
+        <v>84.71970766666666</v>
       </c>
       <c r="H10">
-        <v>75.46818085567919</v>
+        <v>254.159123</v>
       </c>
       <c r="I10">
-        <v>0.2040160884280983</v>
+        <v>0.2202813270411758</v>
       </c>
       <c r="J10">
-        <v>0.2040160884280983</v>
+        <v>0.2202813270411758</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.28866708618291</v>
+        <v>12.77892533333333</v>
       </c>
       <c r="N10">
-        <v>3.28866708618291</v>
+        <v>38.336776</v>
       </c>
       <c r="O10">
-        <v>0.22450781804306</v>
+        <v>0.7206984557633653</v>
       </c>
       <c r="P10">
-        <v>0.22450781804306</v>
+        <v>0.7206984557633654</v>
       </c>
       <c r="Q10">
-        <v>248.1897224341714</v>
+        <v>1082.626818534161</v>
       </c>
       <c r="R10">
-        <v>248.1897224341714</v>
+        <v>9743.641366807447</v>
       </c>
       <c r="S10">
-        <v>0.04580320685867234</v>
+        <v>0.1587564122320802</v>
       </c>
       <c r="T10">
-        <v>0.04580320685867234</v>
+        <v>0.1587564122320802</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.4628231048686</v>
+        <v>84.71970766666666</v>
       </c>
       <c r="H11">
-        <v>34.4628231048686</v>
+        <v>254.159123</v>
       </c>
       <c r="I11">
-        <v>0.09316469916626699</v>
+        <v>0.2202813270411758</v>
       </c>
       <c r="J11">
-        <v>0.09316469916626699</v>
+        <v>0.2202813270411758</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.442864983218</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N11">
-        <v>10.442864983218</v>
+        <v>2.969483</v>
       </c>
       <c r="O11">
-        <v>0.712904277040024</v>
+        <v>0.05582372947885773</v>
       </c>
       <c r="P11">
-        <v>0.712904277040024</v>
+        <v>0.05582372947885774</v>
       </c>
       <c r="Q11">
-        <v>359.8906086246685</v>
+        <v>83.85791056037878</v>
       </c>
       <c r="R11">
-        <v>359.8906086246685</v>
+        <v>754.721195043409</v>
       </c>
       <c r="S11">
-        <v>0.0664175125047789</v>
+        <v>0.01229692520999039</v>
       </c>
       <c r="T11">
-        <v>0.0664175125047789</v>
+        <v>0.01229692520999039</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.4628231048686</v>
+        <v>84.71970766666666</v>
       </c>
       <c r="H12">
-        <v>34.4628231048686</v>
+        <v>254.159123</v>
       </c>
       <c r="I12">
-        <v>0.09316469916626699</v>
+        <v>0.2202813270411758</v>
       </c>
       <c r="J12">
-        <v>0.09316469916626699</v>
+        <v>0.2202813270411758</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.916808976576171</v>
+        <v>0.02976266666666667</v>
       </c>
       <c r="N12">
-        <v>0.916808976576171</v>
+        <v>0.08928800000000001</v>
       </c>
       <c r="O12">
-        <v>0.06258790491691597</v>
+        <v>0.001678537697541373</v>
       </c>
       <c r="P12">
-        <v>0.06258790491691597</v>
+        <v>0.001678537697541373</v>
       </c>
       <c r="Q12">
-        <v>31.5958255807002</v>
+        <v>2.521484419380445</v>
       </c>
       <c r="R12">
-        <v>31.5958255807002</v>
+        <v>22.693359774424</v>
       </c>
       <c r="S12">
-        <v>0.005830983333031399</v>
+        <v>0.0003697505115030534</v>
       </c>
       <c r="T12">
-        <v>0.005830983333031399</v>
+        <v>0.0003697505115030534</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.4628231048686</v>
+        <v>84.71970766666666</v>
       </c>
       <c r="H13">
-        <v>34.4628231048686</v>
+        <v>254.159123</v>
       </c>
       <c r="I13">
-        <v>0.09316469916626699</v>
+        <v>0.2202813270411758</v>
       </c>
       <c r="J13">
-        <v>0.09316469916626699</v>
+        <v>0.2202813270411758</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.28866708618291</v>
+        <v>3.932791</v>
       </c>
       <c r="N13">
-        <v>3.28866708618291</v>
+        <v>11.798373</v>
       </c>
       <c r="O13">
-        <v>0.22450781804306</v>
+        <v>0.2217992770602354</v>
       </c>
       <c r="P13">
-        <v>0.22450781804306</v>
+        <v>0.2217992770602354</v>
       </c>
       <c r="Q13">
-        <v>113.3367520419253</v>
+        <v>333.1849038340977</v>
       </c>
       <c r="R13">
-        <v>113.3367520419253</v>
+        <v>2998.664134506879</v>
       </c>
       <c r="S13">
-        <v>0.0209162033284567</v>
+        <v>0.04885823908760208</v>
       </c>
       <c r="T13">
-        <v>0.0209162033284567</v>
+        <v>0.04885823908760208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>37.18048166666667</v>
+      </c>
+      <c r="H14">
+        <v>111.541445</v>
+      </c>
+      <c r="I14">
+        <v>0.09667367920800672</v>
+      </c>
+      <c r="J14">
+        <v>0.09667367920800671</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>12.77892533333333</v>
+      </c>
+      <c r="N14">
+        <v>38.336776</v>
+      </c>
+      <c r="O14">
+        <v>0.7206984557633653</v>
+      </c>
+      <c r="P14">
+        <v>0.7206984557633654</v>
+      </c>
+      <c r="Q14">
+        <v>475.1265990757022</v>
+      </c>
+      <c r="R14">
+        <v>4276.139391681319</v>
+      </c>
+      <c r="S14">
+        <v>0.06967257131817341</v>
+      </c>
+      <c r="T14">
+        <v>0.06967257131817341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>37.18048166666667</v>
+      </c>
+      <c r="H15">
+        <v>111.541445</v>
+      </c>
+      <c r="I15">
+        <v>0.09667367920800672</v>
+      </c>
+      <c r="J15">
+        <v>0.09667367920800671</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.9898276666666668</v>
+      </c>
+      <c r="N15">
+        <v>2.969483</v>
+      </c>
+      <c r="O15">
+        <v>0.05582372947885773</v>
+      </c>
+      <c r="P15">
+        <v>0.05582372947885774</v>
+      </c>
+      <c r="Q15">
+        <v>36.80226941365945</v>
+      </c>
+      <c r="R15">
+        <v>331.220424722935</v>
+      </c>
+      <c r="S15">
+        <v>0.005396685315833641</v>
+      </c>
+      <c r="T15">
+        <v>0.005396685315833641</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>37.18048166666667</v>
+      </c>
+      <c r="H16">
+        <v>111.541445</v>
+      </c>
+      <c r="I16">
+        <v>0.09667367920800672</v>
+      </c>
+      <c r="J16">
+        <v>0.09667367920800671</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02976266666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.08928800000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.001678537697541373</v>
+      </c>
+      <c r="P16">
+        <v>0.001678537697541373</v>
+      </c>
+      <c r="Q16">
+        <v>1.106590282351111</v>
+      </c>
+      <c r="R16">
+        <v>9.959312541160001</v>
+      </c>
+      <c r="S16">
+        <v>0.0001622704149106609</v>
+      </c>
+      <c r="T16">
+        <v>0.0001622704149106609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>37.18048166666667</v>
+      </c>
+      <c r="H17">
+        <v>111.541445</v>
+      </c>
+      <c r="I17">
+        <v>0.09667367920800672</v>
+      </c>
+      <c r="J17">
+        <v>0.09667367920800671</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.932791</v>
+      </c>
+      <c r="N17">
+        <v>11.798373</v>
+      </c>
+      <c r="O17">
+        <v>0.2217992770602354</v>
+      </c>
+      <c r="P17">
+        <v>0.2217992770602354</v>
+      </c>
+      <c r="Q17">
+        <v>146.2230636743317</v>
+      </c>
+      <c r="R17">
+        <v>1316.007573068985</v>
+      </c>
+      <c r="S17">
+        <v>0.021442152159089</v>
+      </c>
+      <c r="T17">
+        <v>0.021442152159089</v>
       </c>
     </row>
   </sheetData>
